--- a/Draft Prioritisation Framework 160730a.xlsx
+++ b/Draft Prioritisation Framework 160730a.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\GovHack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanschliebs/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="1140" yWindow="660" windowWidth="23760" windowHeight="14380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Feature</t>
   </si>
@@ -120,6 +126,12 @@
   </si>
   <si>
     <t>PRIORITISATION FRAMEWORK</t>
+  </si>
+  <si>
+    <t>Upload to Playstore</t>
+  </si>
+  <si>
+    <t>Use click events to rank playgrounds</t>
   </si>
 </sst>
 </file>
@@ -232,9 +244,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -267,9 +279,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -451,15 +463,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -494,7 +508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>ROW()-2</f>
         <v>1</v>
@@ -558,6 +572,12 @@
       <c r="B3" t="s">
         <v>19</v>
       </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
       <c r="P3">
         <v>3</v>
       </c>
@@ -568,7 +588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A39" si="0">ROW()-1</f>
         <v>3</v>
@@ -576,6 +596,12 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
       <c r="P4">
         <v>3</v>
       </c>
@@ -589,7 +615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -597,6 +623,12 @@
       <c r="B5" t="s">
         <v>21</v>
       </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
       <c r="P5">
         <v>3</v>
       </c>
@@ -604,7 +636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -612,6 +644,12 @@
       <c r="B6" t="s">
         <v>26</v>
       </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
       <c r="P6">
         <v>3</v>
       </c>
@@ -622,7 +660,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -634,7 +672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -649,7 +687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -661,7 +699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -676,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -684,6 +722,12 @@
       <c r="B11" t="s">
         <v>30</v>
       </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
       <c r="P11">
         <v>5</v>
       </c>
@@ -691,7 +735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -699,6 +743,12 @@
       <c r="B12" t="s">
         <v>13</v>
       </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
       <c r="P12">
         <v>5</v>
       </c>
@@ -706,7 +756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -721,7 +771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -729,11 +779,14 @@
       <c r="B14" t="s">
         <v>15</v>
       </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
       <c r="P14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -748,7 +801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -760,7 +813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -768,6 +821,12 @@
       <c r="B17" t="s">
         <v>27</v>
       </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
       <c r="P17">
         <v>5</v>
       </c>
@@ -775,7 +834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -790,127 +849,145 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>

--- a/Draft Prioritisation Framework 160730a.xlsx
+++ b/Draft Prioritisation Framework 160730a.xlsx
@@ -1,36 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanschliebs/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20160730B\tumbleweedgovhack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="660" windowWidth="23760" windowHeight="14380"/>
+    <workbookView xWindow="1140" yWindow="660" windowWidth="23760" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Feature</t>
   </si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>Use click events to rank playgrounds</t>
+  </si>
+  <si>
+    <t>b5mcpyu3</t>
   </si>
 </sst>
 </file>
@@ -155,12 +155,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -175,12 +181,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,54 +484,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="9" width="3.7109375" style="7" customWidth="1"/>
+    <col min="10" max="11" width="3.7109375" customWidth="1"/>
+    <col min="12" max="13" width="3.7109375" style="7" customWidth="1"/>
+    <col min="14" max="15" width="3.7109375" customWidth="1"/>
+    <col min="16" max="17" width="3.7109375" style="7" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="8"/>
       <c r="T1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="1" customFormat="1" ht="39.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,40 +550,40 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="T2" s="1">
@@ -564,7 +593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>ROW()-2</f>
         <v>1</v>
@@ -578,17 +607,24 @@
       <c r="G3">
         <v>6</v>
       </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-      <c r="Q3">
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
+      <c r="P3" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="7">
         <v>7</v>
       </c>
+      <c r="S3" s="9">
+        <f>IF(ISBLANK(G3),0,F3/G3)+IF(ISBLANK(I3),0,H3/I3)+IF(ISBLANK(K3),0,J3/K3)+IF(ISBLANK(M3),0,L3/M3)+IF(ISBLANK(O3),0,N3/O3)+IF(ISBLANK(Q3),0,P3/Q3)</f>
+        <v>1.0952380952380951</v>
+      </c>
       <c r="T3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A39" si="0">ROW()-1</f>
         <v>3</v>
@@ -602,11 +638,18 @@
       <c r="G4">
         <v>8</v>
       </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-      <c r="Q4">
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="P4" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="7">
         <v>8</v>
+      </c>
+      <c r="S4" s="9">
+        <f t="shared" ref="S4:S20" si="1">IF(ISBLANK(G4),0,F4/G4)+IF(ISBLANK(I4),0,H4/I4)+IF(ISBLANK(K4),0,J4/K4)+IF(ISBLANK(M4),0,L4/M4)+IF(ISBLANK(O4),0,N4/O4)+IF(ISBLANK(Q4),0,P4/Q4)</f>
+        <v>0.625</v>
       </c>
       <c r="T4">
         <v>3</v>
@@ -615,7 +658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -629,14 +672,21 @@
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="P5">
-        <v>3</v>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="P5" s="7">
+        <v>3</v>
+      </c>
+      <c r="S5" s="9">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="T5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -650,8 +700,15 @@
       <c r="G6">
         <v>7</v>
       </c>
-      <c r="P6">
-        <v>3</v>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="P6" s="7">
+        <v>3</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="T6">
         <v>5</v>
@@ -660,7 +717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -668,11 +725,18 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="P7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="P7" s="7">
+        <v>4</v>
+      </c>
+      <c r="S7" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -680,14 +744,21 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-      <c r="Q8">
+      <c r="H8" s="7">
+        <v>3</v>
+      </c>
+      <c r="P8" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -695,11 +766,21 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="P9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H9" s="7">
+        <v>5</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3</v>
+      </c>
+      <c r="P9" s="7">
+        <v>3</v>
+      </c>
+      <c r="S9" s="9">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -707,14 +788,24 @@
       <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="P10">
-        <v>5</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5</v>
+      </c>
+      <c r="P10" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>5</v>
+      </c>
+      <c r="S10" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -728,14 +819,24 @@
       <c r="G11">
         <v>9</v>
       </c>
-      <c r="P11">
-        <v>5</v>
-      </c>
-      <c r="Q11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H11" s="7">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2</v>
+      </c>
+      <c r="P11" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>3</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="1"/>
+        <v>4.3888888888888893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -749,14 +850,24 @@
       <c r="G12">
         <v>4</v>
       </c>
-      <c r="P12">
-        <v>5</v>
-      </c>
-      <c r="Q12">
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4</v>
+      </c>
+      <c r="P12" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S12" s="9">
+        <f t="shared" si="1"/>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -764,14 +875,24 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="P13">
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>9</v>
+      </c>
+      <c r="P13" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>5</v>
+      </c>
+      <c r="S13" s="9">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -782,11 +903,18 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="P14">
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="P14" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -794,14 +922,24 @@
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="P15">
-        <v>4</v>
-      </c>
-      <c r="Q15">
+      <c r="H15" s="7">
+        <v>4</v>
+      </c>
+      <c r="I15" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P15" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>6</v>
+      </c>
+      <c r="S15" s="9">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -809,11 +947,18 @@
       <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="P16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7">
+        <v>3</v>
+      </c>
+      <c r="S16" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -827,14 +972,24 @@
       <c r="G17">
         <v>5</v>
       </c>
-      <c r="P17">
-        <v>5</v>
-      </c>
-      <c r="Q17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="P17" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>2</v>
+      </c>
+      <c r="S17" s="9">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+      <c r="W17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -842,14 +997,24 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="P18">
-        <v>5</v>
-      </c>
-      <c r="Q18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H18" s="7">
+        <v>4</v>
+      </c>
+      <c r="I18" s="7">
+        <v>7</v>
+      </c>
+      <c r="P18" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>4</v>
+      </c>
+      <c r="S18" s="9">
+        <f t="shared" si="1"/>
+        <v>1.8214285714285714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -863,8 +1028,18 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H19" s="7">
+        <v>5</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="S19" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -878,122 +1053,144 @@
       <c r="G20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H20" s="7">
+        <v>4</v>
+      </c>
+      <c r="I20" s="7">
+        <v>8</v>
+      </c>
+      <c r="S20" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="S3:S20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F39 H3:H39 J3:J39 L3:L39 N3:N39 P3:P39">
       <formula1>$T$2:$T$6</formula1>

--- a/Draft Prioritisation Framework 160730a.xlsx
+++ b/Draft Prioritisation Framework 160730a.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20160730B\tumbleweedgovhack\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="660" windowWidth="23760" windowHeight="14385"/>
+    <workbookView xWindow="1140" yWindow="660" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Feature</t>
   </si>
@@ -131,14 +126,17 @@
     <t>Use click events to rank playgrounds</t>
   </si>
   <si>
-    <t>b5mcpyu3</t>
+    <t>DONE?</t>
+  </si>
+  <si>
+    <t>Possible:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +146,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -178,10 +183,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -204,9 +210,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -264,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -299,7 +307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -476,7 +484,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -484,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,9 +508,10 @@
     <col min="14" max="15" width="3.7109375" customWidth="1"/>
     <col min="16" max="17" width="3.7109375" style="7" customWidth="1"/>
     <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -533,11 +542,11 @@
         <v>9</v>
       </c>
       <c r="Q1" s="8"/>
-      <c r="T1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="39.75" x14ac:dyDescent="0.25">
+      <c r="U1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="39.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,14 +595,17 @@
       <c r="Q2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="1">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="T2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>ROW()-2</f>
         <v>1</v>
@@ -610,6 +622,12 @@
       <c r="H3" s="7">
         <v>2</v>
       </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
       <c r="P3" s="7">
         <v>3</v>
       </c>
@@ -618,13 +636,14 @@
       </c>
       <c r="S3" s="9">
         <f>IF(ISBLANK(G3),0,F3/G3)+IF(ISBLANK(I3),0,H3/I3)+IF(ISBLANK(K3),0,J3/K3)+IF(ISBLANK(M3),0,L3/M3)+IF(ISBLANK(O3),0,N3/O3)+IF(ISBLANK(Q3),0,P3/Q3)</f>
-        <v>1.0952380952380951</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.0952380952380949</v>
+      </c>
+      <c r="T3" s="9"/>
+      <c r="U3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A39" si="0">ROW()-1</f>
         <v>3</v>
@@ -641,6 +660,12 @@
       <c r="H4" s="7">
         <v>3</v>
       </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
       <c r="P4" s="7">
         <v>3</v>
       </c>
@@ -649,16 +674,17 @@
       </c>
       <c r="S4" s="9">
         <f t="shared" ref="S4:S20" si="1">IF(ISBLANK(G4),0,F4/G4)+IF(ISBLANK(I4),0,H4/I4)+IF(ISBLANK(K4),0,J4/K4)+IF(ISBLANK(M4),0,L4/M4)+IF(ISBLANK(O4),0,N4/O4)+IF(ISBLANK(Q4),0,P4/Q4)</f>
-        <v>0.625</v>
-      </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
-      <c r="U4" s="1" t="s">
+        <v>1.625</v>
+      </c>
+      <c r="T4" s="9"/>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -675,18 +701,25 @@
       <c r="H5" s="7">
         <v>2</v>
       </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
       <c r="P5" s="7">
         <v>3</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="T5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="T5" s="9"/>
+      <c r="U5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -703,21 +736,28 @@
       <c r="H6" s="7">
         <v>2</v>
       </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
       <c r="P6" s="7">
         <v>3</v>
       </c>
       <c r="S6" s="9">
         <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="T6">
-        <v>5</v>
-      </c>
-      <c r="U6" s="1" t="s">
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="T6" s="9"/>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -728,15 +768,22 @@
       <c r="H7" s="7">
         <v>3</v>
       </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
       <c r="P7" s="7">
         <v>4</v>
       </c>
       <c r="S7" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -747,6 +794,12 @@
       <c r="H8" s="7">
         <v>3</v>
       </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
       <c r="P8" s="7">
         <v>2</v>
       </c>
@@ -755,10 +808,11 @@
       </c>
       <c r="S8" s="9">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -772,15 +826,22 @@
       <c r="I9" s="7">
         <v>3</v>
       </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
       <c r="P9" s="7">
         <v>3</v>
       </c>
       <c r="S9" s="9">
         <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -794,6 +855,12 @@
       <c r="I10" s="7">
         <v>5</v>
       </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
       <c r="P10" s="7">
         <v>5</v>
       </c>
@@ -802,10 +869,11 @@
       </c>
       <c r="S10" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -825,6 +893,12 @@
       <c r="I11" s="7">
         <v>2</v>
       </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
       <c r="P11" s="7">
         <v>5</v>
       </c>
@@ -833,10 +907,11 @@
       </c>
       <c r="S11" s="9">
         <f t="shared" si="1"/>
-        <v>4.3888888888888893</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5.1388888888888893</v>
+      </c>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -856,6 +931,12 @@
       <c r="I12" s="7">
         <v>4</v>
       </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
       <c r="P12" s="7">
         <v>5</v>
       </c>
@@ -864,10 +945,11 @@
       </c>
       <c r="S12" s="9">
         <f t="shared" si="1"/>
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>8.9166666666666679</v>
+      </c>
+      <c r="T12" s="9"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -881,6 +963,12 @@
       <c r="I13" s="7">
         <v>9</v>
       </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
       <c r="P13" s="7">
         <v>5</v>
       </c>
@@ -889,10 +977,11 @@
       </c>
       <c r="S13" s="9">
         <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -906,15 +995,22 @@
       <c r="H14" s="7">
         <v>2</v>
       </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
       <c r="P14" s="7">
         <v>1</v>
       </c>
       <c r="S14" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="T14" s="9"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -928,6 +1024,12 @@
       <c r="I15" s="7">
         <v>6</v>
       </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
       <c r="P15" s="7">
         <v>4</v>
       </c>
@@ -936,10 +1038,11 @@
       </c>
       <c r="S15" s="9">
         <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -950,15 +1053,22 @@
       <c r="H16" s="7">
         <v>1</v>
       </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
       <c r="P16" s="7">
         <v>3</v>
       </c>
       <c r="S16" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="T16" s="9"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -975,6 +1085,15 @@
       <c r="H17" s="7">
         <v>5</v>
       </c>
+      <c r="I17" s="7">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
       <c r="P17" s="7">
         <v>5</v>
       </c>
@@ -983,13 +1102,11 @@
       </c>
       <c r="S17" s="9">
         <f t="shared" si="1"/>
-        <v>3.3</v>
-      </c>
-      <c r="W17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+        <v>7.0142857142857142</v>
+      </c>
+      <c r="T17" s="9"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1003,6 +1120,12 @@
       <c r="I18" s="7">
         <v>7</v>
       </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
       <c r="P18" s="7">
         <v>5</v>
       </c>
@@ -1011,10 +1134,11 @@
       </c>
       <c r="S18" s="9">
         <f t="shared" si="1"/>
-        <v>1.8214285714285714</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+        <v>4.8214285714285712</v>
+      </c>
+      <c r="T18" s="9"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1034,12 +1158,28 @@
       <c r="I19" s="7">
         <v>1</v>
       </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="P19" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>2</v>
+      </c>
       <c r="S19" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+        <v>14.166666666666666</v>
+      </c>
+      <c r="T19" s="9">
+        <f>+S19</f>
+        <v>14.166666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1059,78 +1199,106 @@
       <c r="I20" s="7">
         <v>8</v>
       </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="P20" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>1</v>
+      </c>
       <c r="S20" s="9">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="T20" s="9"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" s="9">
+        <f>SUM(S3:S20)</f>
+        <v>79.873412698412707</v>
+      </c>
+      <c r="T22" s="9">
+        <f>SUM(T3:T20)</f>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="U22" s="10">
+        <f>+T22/S22</f>
+        <v>0.17736398368450074</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1179,7 +1347,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="S3:S20">
+  <conditionalFormatting sqref="S3:T20">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1191,9 +1359,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F39 H3:H39 J3:J39 L3:L39 N3:N39 P3:P39">
-      <formula1>$T$2:$T$6</formula1>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F39 P3:P39 N3:N39 L3:L39 J3:J39 H3:H39">
+      <formula1>$U$2:$U$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Draft Prioritisation Framework 160730a.xlsx
+++ b/Draft Prioritisation Framework 160730a.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20160730B\tumbleweedgovhack\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1140" yWindow="660" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -484,7 +489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -495,7 +500,7 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,74 +612,81 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H3" s="7">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q3" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S3" s="9">
         <f>IF(ISBLANK(G3),0,F3/G3)+IF(ISBLANK(I3),0,H3/I3)+IF(ISBLANK(K3),0,J3/K3)+IF(ISBLANK(M3),0,L3/M3)+IF(ISBLANK(O3),0,N3/O3)+IF(ISBLANK(Q3),0,P3/Q3)</f>
-        <v>4.0952380952380949</v>
-      </c>
-      <c r="T3" s="9"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="T3" s="9">
+        <f>+S3</f>
+        <v>14.166666666666666</v>
+      </c>
       <c r="U3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A39" si="0">ROW()-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
         <v>8</v>
       </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
       <c r="J4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P4" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S4" s="9">
-        <f t="shared" ref="S4:S20" si="1">IF(ISBLANK(G4),0,F4/G4)+IF(ISBLANK(I4),0,H4/I4)+IF(ISBLANK(K4),0,J4/K4)+IF(ISBLANK(M4),0,L4/M4)+IF(ISBLANK(O4),0,N4/O4)+IF(ISBLANK(Q4),0,P4/Q4)</f>
-        <v>1.625</v>
+        <f>IF(ISBLANK(G4),0,F4/G4)+IF(ISBLANK(I4),0,H4/I4)+IF(ISBLANK(K4),0,J4/K4)+IF(ISBLANK(M4),0,L4/M4)+IF(ISBLANK(O4),0,N4/O4)+IF(ISBLANK(Q4),0,P4/Q4)</f>
+        <v>9</v>
       </c>
       <c r="T4" s="9"/>
       <c r="U4">
@@ -686,33 +698,38 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5" s="7">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>1</v>
       </c>
       <c r="S5" s="9">
-        <f t="shared" si="1"/>
-        <v>2.333333333333333</v>
+        <f>IF(ISBLANK(G5),0,F5/G5)+IF(ISBLANK(I5),0,H5/I5)+IF(ISBLANK(K5),0,J5/K5)+IF(ISBLANK(M5),0,L5/M5)+IF(ISBLANK(O5),0,N5/O5)+IF(ISBLANK(Q5),0,P5/Q5)</f>
+        <v>8.9166666666666679</v>
       </c>
       <c r="T5" s="9"/>
       <c r="U5">
@@ -721,33 +738,38 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7">
+        <v>5</v>
+      </c>
+      <c r="I6" s="7">
         <v>7</v>
       </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="P6" s="7">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>2</v>
       </c>
       <c r="S6" s="9">
-        <f t="shared" si="1"/>
-        <v>2.4285714285714284</v>
+        <f>IF(ISBLANK(G6),0,F6/G6)+IF(ISBLANK(I6),0,H6/I6)+IF(ISBLANK(K6),0,J6/K6)+IF(ISBLANK(M6),0,L6/M6)+IF(ISBLANK(O6),0,N6/O6)+IF(ISBLANK(Q6),0,P6/Q6)</f>
+        <v>7.0142857142857142</v>
       </c>
       <c r="T6" s="9"/>
       <c r="U6">
@@ -759,72 +781,84 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P7" s="7">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>3</v>
       </c>
       <c r="S7" s="9">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>IF(ISBLANK(G7),0,F7/G7)+IF(ISBLANK(I7),0,H7/I7)+IF(ISBLANK(K7),0,J7/K7)+IF(ISBLANK(M7),0,L7/M7)+IF(ISBLANK(O7),0,N7/O7)+IF(ISBLANK(Q7),0,P7/Q7)</f>
+        <v>5.1388888888888893</v>
       </c>
       <c r="T7" s="9"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="7">
+        <v>4</v>
+      </c>
+      <c r="I8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
       <c r="J8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="P8" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S8" s="9">
-        <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
+        <f>IF(ISBLANK(G8),0,F8/G8)+IF(ISBLANK(I8),0,H8/I8)+IF(ISBLANK(K8),0,J8/K8)+IF(ISBLANK(M8),0,L8/M8)+IF(ISBLANK(O8),0,N8/O8)+IF(ISBLANK(Q8),0,P8/Q8)</f>
+        <v>4.8214285714285712</v>
       </c>
       <c r="T8" s="9"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>5</v>
@@ -833,164 +867,153 @@
         <v>2</v>
       </c>
       <c r="P9" s="7">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>5</v>
       </c>
       <c r="S9" s="9">
-        <f t="shared" si="1"/>
-        <v>4.166666666666667</v>
+        <f>IF(ISBLANK(G9),0,F9/G9)+IF(ISBLANK(I9),0,H9/I9)+IF(ISBLANK(K9),0,J9/K9)+IF(ISBLANK(M9),0,L9/M9)+IF(ISBLANK(O9),0,N9/O9)+IF(ISBLANK(Q9),0,P9/Q9)</f>
+        <v>4.5</v>
       </c>
       <c r="T9" s="9"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P10" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S10" s="9">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
+        <f>IF(ISBLANK(G10),0,F10/G10)+IF(ISBLANK(I10),0,H10/I10)+IF(ISBLANK(K10),0,J10/K10)+IF(ISBLANK(M10),0,L10/M10)+IF(ISBLANK(O10),0,N10/O10)+IF(ISBLANK(Q10),0,P10/Q10)</f>
+        <v>4.333333333333333</v>
       </c>
       <c r="T10" s="9"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P11" s="7">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="7">
         <v>3</v>
       </c>
       <c r="S11" s="9">
-        <f t="shared" si="1"/>
-        <v>5.1388888888888893</v>
+        <f>IF(ISBLANK(G11),0,F11/G11)+IF(ISBLANK(I11),0,H11/I11)+IF(ISBLANK(K11),0,J11/K11)+IF(ISBLANK(M11),0,L11/M11)+IF(ISBLANK(O11),0,N11/O11)+IF(ISBLANK(Q11),0,P11/Q11)</f>
+        <v>4.166666666666667</v>
       </c>
       <c r="T11" s="9"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P12" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S12" s="9">
-        <f t="shared" si="1"/>
-        <v>8.9166666666666679</v>
+        <f>IF(ISBLANK(G12),0,F12/G12)+IF(ISBLANK(I12),0,H12/I12)+IF(ISBLANK(K12),0,J12/K12)+IF(ISBLANK(M12),0,L12/M12)+IF(ISBLANK(O12),0,N12/O12)+IF(ISBLANK(Q12),0,P12/Q12)</f>
+        <v>4.0952380952380949</v>
       </c>
       <c r="T12" s="9"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <v>2</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P13" s="7">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S13" s="9">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>IF(ISBLANK(G13),0,F13/G13)+IF(ISBLANK(I13),0,H13/I13)+IF(ISBLANK(K13),0,J13/K13)+IF(ISBLANK(M13),0,L13/M13)+IF(ISBLANK(O13),0,N13/O13)+IF(ISBLANK(Q13),0,P13/Q13)</f>
+        <v>2.4285714285714284</v>
       </c>
       <c r="T13" s="9"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1002,30 +1025,26 @@
         <v>1</v>
       </c>
       <c r="P14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S14" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF(ISBLANK(G14),0,F14/G14)+IF(ISBLANK(I14),0,H14/I14)+IF(ISBLANK(K14),0,J14/K14)+IF(ISBLANK(M14),0,L14/M14)+IF(ISBLANK(O14),0,N14/O14)+IF(ISBLANK(Q14),0,P14/Q14)</f>
+        <v>2.333333333333333</v>
       </c>
       <c r="T14" s="9"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
-        <v>4</v>
-      </c>
-      <c r="I15" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1033,207 +1052,173 @@
       <c r="P15" s="7">
         <v>4</v>
       </c>
-      <c r="Q15" s="7">
-        <v>6</v>
-      </c>
       <c r="S15" s="9">
-        <f t="shared" si="1"/>
-        <v>4.333333333333333</v>
+        <f>IF(ISBLANK(G15),0,F15/G15)+IF(ISBLANK(I15),0,H15/I15)+IF(ISBLANK(K15),0,J15/K15)+IF(ISBLANK(M15),0,L15/M15)+IF(ISBLANK(O15),0,N15/O15)+IF(ISBLANK(Q15),0,P15/Q15)</f>
+        <v>2</v>
       </c>
       <c r="T15" s="9"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>9</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P16" s="7">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>5</v>
       </c>
       <c r="S16" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF(ISBLANK(G16),0,F16/G16)+IF(ISBLANK(I16),0,H16/I16)+IF(ISBLANK(K16),0,J16/K16)+IF(ISBLANK(M16),0,L16/M16)+IF(ISBLANK(O16),0,N16/O16)+IF(ISBLANK(Q16),0,P16/Q16)</f>
+        <v>2</v>
       </c>
       <c r="T16" s="9"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
-      </c>
-      <c r="I17" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="P17" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S17" s="9">
-        <f t="shared" si="1"/>
-        <v>7.0142857142857142</v>
+        <f>IF(ISBLANK(G17),0,F17/G17)+IF(ISBLANK(I17),0,H17/I17)+IF(ISBLANK(K17),0,J17/K17)+IF(ISBLANK(M17),0,L17/M17)+IF(ISBLANK(O17),0,N17/O17)+IF(ISBLANK(Q17),0,P17/Q17)</f>
+        <v>1.625</v>
       </c>
       <c r="T17" s="9"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
       <c r="H18" s="7">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="P18" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" si="1"/>
-        <v>4.8214285714285712</v>
+        <f>IF(ISBLANK(G18),0,F18/G18)+IF(ISBLANK(I18),0,H18/I18)+IF(ISBLANK(K18),0,J18/K18)+IF(ISBLANK(M18),0,L18/M18)+IF(ISBLANK(O18),0,N18/O18)+IF(ISBLANK(Q18),0,P18/Q18)</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="T18" s="9"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" s="7">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P19" s="7">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S19" s="9">
-        <f t="shared" si="1"/>
-        <v>14.166666666666666</v>
-      </c>
-      <c r="T19" s="9">
-        <f>+S19</f>
-        <v>14.166666666666666</v>
-      </c>
+        <f>IF(ISBLANK(G19),0,F19/G19)+IF(ISBLANK(I19),0,H19/I19)+IF(ISBLANK(K19),0,J19/K19)+IF(ISBLANK(M19),0,L19/M19)+IF(ISBLANK(O19),0,N19/O19)+IF(ISBLANK(Q19),0,P19/Q19)</f>
+        <v>1</v>
+      </c>
+      <c r="T19" s="9"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P20" s="7">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S20" s="9">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f>IF(ISBLANK(G20),0,F20/G20)+IF(ISBLANK(I20),0,H20/I20)+IF(ISBLANK(K20),0,J20/K20)+IF(ISBLANK(M20),0,L20/M20)+IF(ISBLANK(O20),0,N20/O20)+IF(ISBLANK(Q20),0,P20/Q20)</f>
+        <v>1</v>
       </c>
       <c r="T20" s="9"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R22" t="s">
         <v>35</v>
       </c>
       <c r="S22" s="9">
         <f>SUM(S3:S20)</f>
-        <v>79.873412698412707</v>
+        <v>79.873412698412679</v>
       </c>
       <c r="T22" s="9">
         <f>SUM(T3:T20)</f>
@@ -1241,112 +1226,98 @@
       </c>
       <c r="U22" s="10">
         <f>+T22/S22</f>
-        <v>0.17736398368450074</v>
+        <v>0.17736398368450082</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B3:T20">
+    <sortCondition descending="1" ref="S3:S20"/>
+  </sortState>
   <conditionalFormatting sqref="S3:T20">
     <cfRule type="colorScale" priority="1">
       <colorScale>

--- a/Draft Prioritisation Framework 160730a.xlsx
+++ b/Draft Prioritisation Framework 160730a.xlsx
@@ -500,13 +500,13 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="3.7109375" customWidth="1"/>
+    <col min="3" max="7" width="3.7109375" customWidth="1"/>
     <col min="8" max="9" width="3.7109375" style="7" customWidth="1"/>
     <col min="10" max="11" width="3.7109375" customWidth="1"/>
     <col min="12" max="13" width="3.7109375" style="7" customWidth="1"/>
@@ -551,17 +551,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="39.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -642,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="S3" s="9">
-        <f>IF(ISBLANK(G3),0,F3/G3)+IF(ISBLANK(I3),0,H3/I3)+IF(ISBLANK(K3),0,J3/K3)+IF(ISBLANK(M3),0,L3/M3)+IF(ISBLANK(O3),0,N3/O3)+IF(ISBLANK(Q3),0,P3/Q3)</f>
+        <f t="shared" ref="S3:S20" si="0">IF(ISBLANK(G3),0,F3/G3)+IF(ISBLANK(I3),0,H3/I3)+IF(ISBLANK(K3),0,J3/K3)+IF(ISBLANK(M3),0,L3/M3)+IF(ISBLANK(O3),0,N3/O3)+IF(ISBLANK(Q3),0,P3/Q3)</f>
         <v>14.166666666666666</v>
       </c>
       <c r="T3" s="9">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="9">
-        <f>IF(ISBLANK(G4),0,F4/G4)+IF(ISBLANK(I4),0,H4/I4)+IF(ISBLANK(K4),0,J4/K4)+IF(ISBLANK(M4),0,L4/M4)+IF(ISBLANK(O4),0,N4/O4)+IF(ISBLANK(Q4),0,P4/Q4)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="T4" s="9"/>
@@ -728,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="9">
-        <f>IF(ISBLANK(G5),0,F5/G5)+IF(ISBLANK(I5),0,H5/I5)+IF(ISBLANK(K5),0,J5/K5)+IF(ISBLANK(M5),0,L5/M5)+IF(ISBLANK(O5),0,N5/O5)+IF(ISBLANK(Q5),0,P5/Q5)</f>
+        <f t="shared" si="0"/>
         <v>8.9166666666666679</v>
       </c>
       <c r="T5" s="9"/>
@@ -768,7 +768,7 @@
         <v>2</v>
       </c>
       <c r="S6" s="9">
-        <f>IF(ISBLANK(G6),0,F6/G6)+IF(ISBLANK(I6),0,H6/I6)+IF(ISBLANK(K6),0,J6/K6)+IF(ISBLANK(M6),0,L6/M6)+IF(ISBLANK(O6),0,N6/O6)+IF(ISBLANK(Q6),0,P6/Q6)</f>
+        <f t="shared" si="0"/>
         <v>7.0142857142857142</v>
       </c>
       <c r="T6" s="9"/>
@@ -811,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="S7" s="9">
-        <f>IF(ISBLANK(G7),0,F7/G7)+IF(ISBLANK(I7),0,H7/I7)+IF(ISBLANK(K7),0,J7/K7)+IF(ISBLANK(M7),0,L7/M7)+IF(ISBLANK(O7),0,N7/O7)+IF(ISBLANK(Q7),0,P7/Q7)</f>
+        <f t="shared" si="0"/>
         <v>5.1388888888888893</v>
       </c>
       <c r="T7" s="9"/>
@@ -842,7 +842,7 @@
         <v>4</v>
       </c>
       <c r="S8" s="9">
-        <f>IF(ISBLANK(G8),0,F8/G8)+IF(ISBLANK(I8),0,H8/I8)+IF(ISBLANK(K8),0,J8/K8)+IF(ISBLANK(M8),0,L8/M8)+IF(ISBLANK(O8),0,N8/O8)+IF(ISBLANK(Q8),0,P8/Q8)</f>
+        <f t="shared" si="0"/>
         <v>4.8214285714285712</v>
       </c>
       <c r="T8" s="9"/>
@@ -873,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="S9" s="9">
-        <f>IF(ISBLANK(G9),0,F9/G9)+IF(ISBLANK(I9),0,H9/I9)+IF(ISBLANK(K9),0,J9/K9)+IF(ISBLANK(M9),0,L9/M9)+IF(ISBLANK(O9),0,N9/O9)+IF(ISBLANK(Q9),0,P9/Q9)</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="T9" s="9"/>
@@ -904,7 +904,7 @@
         <v>6</v>
       </c>
       <c r="S10" s="9">
-        <f>IF(ISBLANK(G10),0,F10/G10)+IF(ISBLANK(I10),0,H10/I10)+IF(ISBLANK(K10),0,J10/K10)+IF(ISBLANK(M10),0,L10/M10)+IF(ISBLANK(O10),0,N10/O10)+IF(ISBLANK(Q10),0,P10/Q10)</f>
+        <f t="shared" si="0"/>
         <v>4.333333333333333</v>
       </c>
       <c r="T10" s="9"/>
@@ -932,7 +932,7 @@
         <v>3</v>
       </c>
       <c r="S11" s="9">
-        <f>IF(ISBLANK(G11),0,F11/G11)+IF(ISBLANK(I11),0,H11/I11)+IF(ISBLANK(K11),0,J11/K11)+IF(ISBLANK(M11),0,L11/M11)+IF(ISBLANK(O11),0,N11/O11)+IF(ISBLANK(Q11),0,P11/Q11)</f>
+        <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
       <c r="T11" s="9"/>
@@ -966,7 +966,7 @@
         <v>7</v>
       </c>
       <c r="S12" s="9">
-        <f>IF(ISBLANK(G12),0,F12/G12)+IF(ISBLANK(I12),0,H12/I12)+IF(ISBLANK(K12),0,J12/K12)+IF(ISBLANK(M12),0,L12/M12)+IF(ISBLANK(O12),0,N12/O12)+IF(ISBLANK(Q12),0,P12/Q12)</f>
+        <f t="shared" si="0"/>
         <v>4.0952380952380949</v>
       </c>
       <c r="T12" s="9"/>
@@ -997,7 +997,7 @@
         <v>3</v>
       </c>
       <c r="S13" s="9">
-        <f>IF(ISBLANK(G13),0,F13/G13)+IF(ISBLANK(I13),0,H13/I13)+IF(ISBLANK(K13),0,J13/K13)+IF(ISBLANK(M13),0,L13/M13)+IF(ISBLANK(O13),0,N13/O13)+IF(ISBLANK(Q13),0,P13/Q13)</f>
+        <f t="shared" si="0"/>
         <v>2.4285714285714284</v>
       </c>
       <c r="T13" s="9"/>
@@ -1028,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="S14" s="9">
-        <f>IF(ISBLANK(G14),0,F14/G14)+IF(ISBLANK(I14),0,H14/I14)+IF(ISBLANK(K14),0,J14/K14)+IF(ISBLANK(M14),0,L14/M14)+IF(ISBLANK(O14),0,N14/O14)+IF(ISBLANK(Q14),0,P14/Q14)</f>
+        <f t="shared" si="0"/>
         <v>2.333333333333333</v>
       </c>
       <c r="T14" s="9"/>
@@ -1053,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="S15" s="9">
-        <f>IF(ISBLANK(G15),0,F15/G15)+IF(ISBLANK(I15),0,H15/I15)+IF(ISBLANK(K15),0,J15/K15)+IF(ISBLANK(M15),0,L15/M15)+IF(ISBLANK(O15),0,N15/O15)+IF(ISBLANK(Q15),0,P15/Q15)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="T15" s="9"/>
@@ -1084,7 +1084,7 @@
         <v>5</v>
       </c>
       <c r="S16" s="9">
-        <f>IF(ISBLANK(G16),0,F16/G16)+IF(ISBLANK(I16),0,H16/I16)+IF(ISBLANK(K16),0,J16/K16)+IF(ISBLANK(M16),0,L16/M16)+IF(ISBLANK(O16),0,N16/O16)+IF(ISBLANK(Q16),0,P16/Q16)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="T16" s="9"/>
@@ -1118,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="S17" s="9">
-        <f>IF(ISBLANK(G17),0,F17/G17)+IF(ISBLANK(I17),0,H17/I17)+IF(ISBLANK(K17),0,J17/K17)+IF(ISBLANK(M17),0,L17/M17)+IF(ISBLANK(O17),0,N17/O17)+IF(ISBLANK(Q17),0,P17/Q17)</f>
+        <f t="shared" si="0"/>
         <v>1.625</v>
       </c>
       <c r="T17" s="9"/>
@@ -1146,7 +1146,7 @@
         <v>6</v>
       </c>
       <c r="S18" s="9">
-        <f>IF(ISBLANK(G18),0,F18/G18)+IF(ISBLANK(I18),0,H18/I18)+IF(ISBLANK(K18),0,J18/K18)+IF(ISBLANK(M18),0,L18/M18)+IF(ISBLANK(O18),0,N18/O18)+IF(ISBLANK(Q18),0,P18/Q18)</f>
+        <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="T18" s="9"/>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="9">
-        <f>IF(ISBLANK(G19),0,F19/G19)+IF(ISBLANK(I19),0,H19/I19)+IF(ISBLANK(K19),0,J19/K19)+IF(ISBLANK(M19),0,L19/M19)+IF(ISBLANK(O19),0,N19/O19)+IF(ISBLANK(Q19),0,P19/Q19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="T19" s="9"/>
@@ -1199,7 +1199,7 @@
         <v>3</v>
       </c>
       <c r="S20" s="9">
-        <f>IF(ISBLANK(G20),0,F20/G20)+IF(ISBLANK(I20),0,H20/I20)+IF(ISBLANK(K20),0,J20/K20)+IF(ISBLANK(M20),0,L20/M20)+IF(ISBLANK(O20),0,N20/O20)+IF(ISBLANK(Q20),0,P20/Q20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="T20" s="9"/>
